--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772083.1943570671</v>
+        <v>769647.5574333599</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.62149822509235</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>233.6829599607973</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.48562715051629</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>91.86872394650869</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>53.4522744295482</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>7.160548332619856</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778467</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>168.5147574760267</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329777</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>25.77959298593739</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009526</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>132.2358972129256</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.9813656337163</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>7.018581172449863</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>157.5220582631736</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560528</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>20.92847288552611</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016472</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6164309267677</v>
+        <v>120.7871326503932</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890409</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>64.36993339924427</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188763</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520979</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740314</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182154</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.3870054807228</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465696</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>152.0854776630156</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>24.83266606353076</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986299</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161889606</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>53.76947475493787</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2394.678395166736</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.9252167254034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.9890337974965</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>311.8723943851608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>812.5736815556431</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.5736815556431</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.41801219738</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261502</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1783.471894452538</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.591601078695</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.591601078695</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>899.8033484804509</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>488.8174436908434</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>73.74499353583985</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>73.74499353583985</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294718</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015649</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015649</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191718</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212614</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959804</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1667.247164102559</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1412.562675896672</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.145505859711</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1123.145505859711</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.258832689355</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1166.296315748943</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>808.030617142193</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>781.9906242271047</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>371.0047194374972</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
@@ -5045,7 +5045,7 @@
         <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878111</v>
@@ -5054,37 +5054,37 @@
         <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856284</v>
       </c>
       <c r="Q11" t="n">
         <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234593</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455664</v>
+        <v>3826.588132455663</v>
       </c>
       <c r="T11" t="n">
         <v>3622.786021971443</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604053</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3038.23241826048</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990368</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729288</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753477</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,10 +5112,10 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J12" t="n">
         <v>196.812062379213</v>
@@ -5133,13 +5133,13 @@
         <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>970.1735984866455</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="C13" t="n">
-        <v>801.2374155587386</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="D13" t="n">
-        <v>651.1207761464028</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="E13" t="n">
-        <v>503.2076825640097</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="F13" t="n">
-        <v>356.3177350660994</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600401</v>
@@ -5215,34 +5215,34 @@
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
         <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014274</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.28868156432</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1855.28868156432</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.604193358433</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>1600.604193358433</v>
+        <v>834.2956531176433</v>
       </c>
       <c r="X13" t="n">
-        <v>1372.614642460415</v>
+        <v>606.3061022196259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1151.822063316885</v>
+        <v>385.5135230760958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555044</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,25 +5270,25 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333933</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446335</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>561.9183350635731</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>561.9183350635731</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937878</v>
+        <v>561.9183350635731</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>414.0052414811801</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>267.1152939832698</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>99.90109915784842</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>99.90109915784842</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693327</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2245.205584149099</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.233048942778</v>
+        <v>2025.526801863481</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.233048942778</v>
+        <v>1736.450588178208</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1481.766099972321</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>964.3593790373429</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>743.5667998938128</v>
       </c>
     </row>
     <row r="17">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876663</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597594</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474236</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474236</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495133</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235162</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258103</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602301</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396414</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614362</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317906</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3403484614385</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4041655335316</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D22" t="n">
-        <v>664.2875261211959</v>
+        <v>363.7369613277319</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3744325388029</v>
+        <v>215.8238677453388</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4844850408927</v>
+        <v>215.8238677453388</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614385</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876659</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179085</v>
+        <v>411.963121559759</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474232</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650301</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179056</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,19 +6251,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614389</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>814.404165533532</v>
+        <v>390.823249958221</v>
       </c>
       <c r="D28" t="n">
-        <v>664.2875261211964</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3744325388031</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4844850408929</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>202.2883857557727</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6467,22 +6467,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536385</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257316</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133959</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,16 +6859,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
         <v>2035.089393279803</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188002</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7099,10 +7099,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.6725264685176</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406107</v>
+        <v>411.9631215597599</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282751</v>
+        <v>261.8464821474242</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458821</v>
+        <v>261.8464821474242</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474242</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230416</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230416</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
         <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377265</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442287</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987573</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381635</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.1898324380299</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.1507770863244</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725978</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>33.56920133529712</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>89.71507747034036</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.29152613729121</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.78599557195916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>59.95993619958818</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067427</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.9077073655011</v>
+        <v>44.73700564187564</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.24553961896808</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610436</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459648</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>32.90770736550107</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462222</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>73.62417772602151</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>232.4149996343063</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.3683537222875</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916312.4558300765</v>
+        <v>916312.4558300764</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996701.4874868592</v>
+        <v>996701.4874868593</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26323,22 +26323,22 @@
         <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="H2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="I2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="J2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="K2" t="n">
         <v>423751.9648372534</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="I2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.9648372532</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
@@ -26347,10 +26347,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
         <v>423751.9648372532</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185165</v>
+        <v>143114.1392185163</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051375</v>
+        <v>166521.3471051377</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557887</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115328</v>
+        <v>37377.32855115347</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848895</v>
+        <v>43782.40655848911</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224847</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14117.63111954901</v>
@@ -26448,13 +26448,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>86093.72216214714</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1099035.543958443</v>
+        <v>-1099035.543958444</v>
       </c>
       <c r="C6" t="n">
         <v>229709.2017691491</v>
       </c>
       <c r="D6" t="n">
-        <v>229709.2017691493</v>
+        <v>229709.2017691491</v>
       </c>
       <c r="E6" t="n">
-        <v>143628.9454711324</v>
+        <v>143418.9812272878</v>
       </c>
       <c r="F6" t="n">
-        <v>140533.1850353605</v>
+        <v>140487.2800397946</v>
       </c>
       <c r="G6" t="n">
-        <v>297245.4467009123</v>
+        <v>297210.7087754766</v>
       </c>
       <c r="H6" t="n">
-        <v>308412.6829364911</v>
+        <v>308377.9450110554</v>
       </c>
       <c r="I6" t="n">
-        <v>308412.6829364912</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="J6" t="n">
-        <v>90881.48053921362</v>
+        <v>90846.74261377788</v>
       </c>
       <c r="K6" t="n">
-        <v>308412.682936491</v>
+        <v>308377.9450110555</v>
       </c>
       <c r="L6" t="n">
-        <v>308412.6829364909</v>
+        <v>308377.9450110553</v>
       </c>
       <c r="M6" t="n">
-        <v>271035.3543853377</v>
+        <v>271000.6164599018</v>
       </c>
       <c r="N6" t="n">
-        <v>264630.276378002</v>
+        <v>264595.538452566</v>
       </c>
       <c r="O6" t="n">
-        <v>305389.3849592663</v>
+        <v>305354.6470338307</v>
       </c>
       <c r="P6" t="n">
-        <v>308412.6829364912</v>
+        <v>308377.9450110553</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086485</v>
+        <v>981.3883278086482</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012583</v>
+        <v>122.3935669012581</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218295</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173587</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173587</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063556</v>
+        <v>149.9868724063557</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173587</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383882</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>115.5580087566157</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>48.94833549605288</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>273.4041678244989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>198.6853688942798</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.41638144030613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228816</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>117.6970807295862</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-2.639429415770185e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.937701687472566e-12</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.254908397438088e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-3.069544618483633e-12</v>
       </c>
     </row>
     <row r="26">
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.719513420539442e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.108239542309139e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31853,16 +31853,16 @@
         <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>388.6056839122515</v>
+        <v>179.5642660017227</v>
       </c>
       <c r="P12" t="n">
         <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697588</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>246.009439467807</v>
+        <v>36.96802155727825</v>
       </c>
       <c r="P12" t="n">
         <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
